--- a/medicine/Enfance/Mickey_Parade/Mickey_Parade.xlsx
+++ b/medicine/Enfance/Mickey_Parade/Mickey_Parade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mickey Parade géant (autrefois Mickey Parade) était un magazine français bimestriel, publié entre 1966 et 2023, regroupant des bandes dessinées Disney, la plupart du temps de production italienne.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier numéro de Mickey Parade est sorti le 3 avril 1966, sur les presses de la société Édi-Monde. Conçu au départ comme un hors-série du Journal de Mickey, il porte à chaque sortie le numéro du Journal de Mickey de la même semaine avec la mention « bis », indiquant par là-même sa nature de supplément. Le premier numéro porte donc le numéro 723 bis et le simple titre « Mickey Parade ».
 À noter que les deux numéros suivants porteront exceptionnellement la mention « Donald Parade » puis « Picsou Parade », peut-être dues à l'incertitude de la phase de lancement. Le premier volume, bleu marine, « Le secret de Pat Hibulaire », voit une autre réédition en mai 1976. Quant au rose crème « Oncle Picsou aux Jeux olympiques », il est fort prisé des collectionneurs du fait de sa présentation des tout proches Jeux d'été de Mexico et aussi, qu'il incluait une médaille. 
@@ -551,7 +565,9 @@
           <t>Les histoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à Super Picsou géant, les pages du magazine sont au format de trois bandeaux, ce qui permet de publier les bandes dessinées italiennes, le plus souvent à ce format. Il publie à présent également des histoires danoises.
 Avec le Journal de Mickey (et dans les années 1990 avec P'tit Loup), Mickey Parade géant était la seule publication Disney Hachette Presse qui contenait des créations françaises. Il s'agissait ici de Michel Souris, un rat se voulant le sosie de Mickey Mouse (personnage imaginé par le scénariste Didier Le Bornec, et dessiné par José Ramón Bernado jusqu'à fin 2009, la création étant alors supprimée dans l'ensemble des publications DHP).
@@ -583,7 +599,9 @@
           <t>Fin de publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 3 août 2023, le dessinateur Dav, collaborateur de la revue de longue date, publie un statut sur Facebook annonçant que le magazine arrêtera d'être publié en fin d'année. En effet, à la suite de la baisse des ventes et la hausse constante du papier depuis deux ans, l'éditeur Unique Héritage Media est contraint de stopper la parution.
 Le Mickey Parade Géant N°397, paru en octobre, devient l'ultime numéro du magazine publié depuis plus de 57 ans.
